--- a/V1/Dataset/GECCO21Workshop.xlsx
+++ b/V1/Dataset/GECCO21Workshop.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pylya\Desktop\PhD\PhD\github\CSPLib\V1\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8741D5-BD52-4226-837E-7CD8250C305B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C14C4C5-E515-49AC-B7C3-4611B8B79E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="900" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="900" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="22" r:id="rId1"/>
@@ -1737,7 +1737,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="754">
   <si>
     <t>Sessions</t>
   </si>
@@ -2480,12 +2480,6 @@
   </si>
   <si>
     <t>Preferred Number of Timeslots:</t>
-  </si>
-  <si>
-    <t>Min Number of Timeslots:</t>
-  </si>
-  <si>
-    <t>Max Number of Timeslots:</t>
   </si>
   <si>
     <t>Submission</t>
@@ -4771,18 +4765,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -4792,6 +4774,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4800,12 +4788,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4819,10 +4801,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4839,9 +4833,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4864,14 +4855,17 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5240,7 +5234,7 @@
       <c r="E10" s="56"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="63" t="s">
         <v>61</v>
       </c>
       <c r="B11" s="55"/>
@@ -5263,347 +5257,347 @@
       <c r="E13" s="56"/>
     </row>
     <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="46"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="47"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="43"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="43"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="41"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="42"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="43"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="41"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="45"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="49"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="45"/>
+      <c r="A18" s="48"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="49"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="57" t="s">
+      <c r="A19" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="58"/>
     </row>
     <row r="20" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="60" t="s">
+      <c r="A20" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="61"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="60"/>
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="61"/>
+      <c r="A21" s="59"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="60"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="60" t="s">
+      <c r="A22" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="60"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="61"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="60"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="60"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="61"/>
+      <c r="A23" s="59"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="60"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="60" t="s">
+      <c r="A24" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="63"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="62"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="62"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="63"/>
+      <c r="A25" s="61"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="62"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="62"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="63"/>
+      <c r="A26" s="61"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="62"/>
     </row>
     <row r="27" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="60" t="s">
+      <c r="A27" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="60"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="61"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="60"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="60"/>
-      <c r="B28" s="60"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="61"/>
+      <c r="A28" s="59"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="60"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="60"/>
-      <c r="B29" s="60"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="61"/>
+      <c r="A29" s="59"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="60"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="57" t="s">
+      <c r="A30" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="65"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="38"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="57" t="s">
+      <c r="A31" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="65"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="38"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="57" t="s">
+      <c r="A32" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="57"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="65"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="38"/>
     </row>
     <row r="33" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="66" t="s">
+      <c r="A33" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="66"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="66"/>
-      <c r="E33" s="67"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="47"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="66"/>
-      <c r="B34" s="66"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="66"/>
-      <c r="E34" s="67"/>
+      <c r="A34" s="46"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="47"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="66"/>
-      <c r="B35" s="66"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="66"/>
-      <c r="E35" s="67"/>
+      <c r="A35" s="46"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="47"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="66"/>
-      <c r="B36" s="66"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="67"/>
+      <c r="A36" s="46"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="47"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="66"/>
-      <c r="B37" s="66"/>
-      <c r="C37" s="66"/>
-      <c r="D37" s="66"/>
-      <c r="E37" s="67"/>
+      <c r="A37" s="46"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="47"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="66"/>
-      <c r="B38" s="66"/>
-      <c r="C38" s="66"/>
-      <c r="D38" s="66"/>
-      <c r="E38" s="67"/>
+      <c r="A38" s="46"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="47"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="66"/>
-      <c r="B39" s="66"/>
-      <c r="C39" s="66"/>
-      <c r="D39" s="66"/>
-      <c r="E39" s="67"/>
+      <c r="A39" s="46"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="47"/>
     </row>
     <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="46"/>
-      <c r="B40" s="46"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="47"/>
+      <c r="A40" s="42"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="43"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="41" t="s">
+      <c r="A41" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="42"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="43"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="41"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="42"/>
-      <c r="B42" s="42"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="43"/>
+      <c r="A42" s="40"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="41"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="48" t="s">
+      <c r="A43" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B43" s="48"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="49"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="45"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="38" t="s">
+      <c r="A44" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B44" s="39"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="40"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="36"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="39"/>
-      <c r="B45" s="39"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="40"/>
+      <c r="A45" s="35"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="36"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="38" t="s">
+      <c r="A46" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="40"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="36"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="39"/>
-      <c r="B47" s="39"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="40"/>
+      <c r="A47" s="35"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="36"/>
     </row>
     <row r="48" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="46"/>
-      <c r="B48" s="46"/>
-      <c r="C48" s="46"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="47"/>
+      <c r="A48" s="42"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="43"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="41" t="s">
+      <c r="A49" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B49" s="42"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="42"/>
-      <c r="E49" s="43"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="41"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="42"/>
-      <c r="B50" s="42"/>
-      <c r="C50" s="42"/>
-      <c r="D50" s="42"/>
-      <c r="E50" s="43"/>
+      <c r="A50" s="40"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="41"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="48" t="s">
+      <c r="A51" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B51" s="48"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="48"/>
-      <c r="E51" s="49"/>
+      <c r="B51" s="44"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="45"/>
     </row>
     <row r="52" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="36" t="s">
+      <c r="A52" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="B52" s="36"/>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="37"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="64"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="65"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="38" t="s">
+      <c r="A53" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B53" s="38"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="38"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
       <c r="E53" s="52"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="38"/>
-      <c r="B54" s="38"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="38"/>
+      <c r="A54" s="34"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
       <c r="E54" s="52"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="36" t="s">
+      <c r="A55" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="B55" s="36"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="36"/>
-      <c r="E55" s="37"/>
+      <c r="B55" s="64"/>
+      <c r="C55" s="64"/>
+      <c r="D55" s="64"/>
+      <c r="E55" s="65"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="36" t="s">
+      <c r="A56" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="B56" s="36"/>
-      <c r="C56" s="36"/>
-      <c r="D56" s="36"/>
-      <c r="E56" s="37"/>
+      <c r="B56" s="64"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="64"/>
+      <c r="E56" s="65"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="26" t="s">
@@ -5612,427 +5606,439 @@
       <c r="E57" s="17"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="38" t="s">
+      <c r="A58" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B58" s="39"/>
-      <c r="C58" s="39"/>
-      <c r="D58" s="39"/>
-      <c r="E58" s="40"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="36"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="39"/>
-      <c r="B59" s="39"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="39"/>
-      <c r="E59" s="40"/>
+      <c r="A59" s="35"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="36"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="44" t="s">
+      <c r="A60" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="B60" s="44"/>
-      <c r="C60" s="44"/>
-      <c r="D60" s="44"/>
-      <c r="E60" s="45"/>
+      <c r="B60" s="48"/>
+      <c r="C60" s="48"/>
+      <c r="D60" s="48"/>
+      <c r="E60" s="49"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="44"/>
-      <c r="B61" s="44"/>
-      <c r="C61" s="44"/>
-      <c r="D61" s="44"/>
-      <c r="E61" s="45"/>
+      <c r="A61" s="48"/>
+      <c r="B61" s="48"/>
+      <c r="C61" s="48"/>
+      <c r="D61" s="48"/>
+      <c r="E61" s="49"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="44"/>
-      <c r="B62" s="44"/>
-      <c r="C62" s="44"/>
-      <c r="D62" s="44"/>
-      <c r="E62" s="45"/>
+      <c r="A62" s="48"/>
+      <c r="B62" s="48"/>
+      <c r="C62" s="48"/>
+      <c r="D62" s="48"/>
+      <c r="E62" s="49"/>
     </row>
     <row r="63" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="46"/>
-      <c r="B63" s="46"/>
-      <c r="C63" s="46"/>
-      <c r="D63" s="46"/>
-      <c r="E63" s="47"/>
+      <c r="A63" s="42"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="43"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="41" t="s">
+      <c r="A64" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B64" s="42"/>
-      <c r="C64" s="42"/>
-      <c r="D64" s="42"/>
-      <c r="E64" s="43"/>
+      <c r="B64" s="40"/>
+      <c r="C64" s="40"/>
+      <c r="D64" s="40"/>
+      <c r="E64" s="41"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="42"/>
-      <c r="B65" s="42"/>
-      <c r="C65" s="42"/>
-      <c r="D65" s="42"/>
-      <c r="E65" s="43"/>
+      <c r="A65" s="40"/>
+      <c r="B65" s="40"/>
+      <c r="C65" s="40"/>
+      <c r="D65" s="40"/>
+      <c r="E65" s="41"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="48" t="s">
+      <c r="A66" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="B66" s="48"/>
-      <c r="C66" s="48"/>
-      <c r="D66" s="48"/>
-      <c r="E66" s="49"/>
+      <c r="B66" s="44"/>
+      <c r="C66" s="44"/>
+      <c r="D66" s="44"/>
+      <c r="E66" s="45"/>
     </row>
     <row r="67" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="36" t="s">
+      <c r="A67" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="B67" s="36"/>
-      <c r="C67" s="36"/>
-      <c r="D67" s="36"/>
-      <c r="E67" s="37"/>
+      <c r="B67" s="64"/>
+      <c r="C67" s="64"/>
+      <c r="D67" s="64"/>
+      <c r="E67" s="65"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="34"/>
-      <c r="B68" s="34"/>
-      <c r="C68" s="34"/>
-      <c r="D68" s="34"/>
-      <c r="E68" s="35"/>
+      <c r="A68" s="50"/>
+      <c r="B68" s="50"/>
+      <c r="C68" s="50"/>
+      <c r="D68" s="50"/>
+      <c r="E68" s="51"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="41" t="s">
+      <c r="A69" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B69" s="42"/>
-      <c r="C69" s="42"/>
-      <c r="D69" s="42"/>
-      <c r="E69" s="43"/>
+      <c r="B69" s="40"/>
+      <c r="C69" s="40"/>
+      <c r="D69" s="40"/>
+      <c r="E69" s="41"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="42"/>
-      <c r="B70" s="42"/>
-      <c r="C70" s="42"/>
-      <c r="D70" s="42"/>
-      <c r="E70" s="43"/>
+      <c r="A70" s="40"/>
+      <c r="B70" s="40"/>
+      <c r="C70" s="40"/>
+      <c r="D70" s="40"/>
+      <c r="E70" s="41"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="44" t="s">
+      <c r="A71" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="B71" s="44"/>
-      <c r="C71" s="44"/>
-      <c r="D71" s="44"/>
-      <c r="E71" s="45"/>
+      <c r="B71" s="48"/>
+      <c r="C71" s="48"/>
+      <c r="D71" s="48"/>
+      <c r="E71" s="49"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="44"/>
-      <c r="B72" s="44"/>
-      <c r="C72" s="44"/>
-      <c r="D72" s="44"/>
-      <c r="E72" s="45"/>
+      <c r="A72" s="48"/>
+      <c r="B72" s="48"/>
+      <c r="C72" s="48"/>
+      <c r="D72" s="48"/>
+      <c r="E72" s="49"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="44"/>
-      <c r="B73" s="44"/>
-      <c r="C73" s="44"/>
-      <c r="D73" s="44"/>
-      <c r="E73" s="45"/>
+      <c r="A73" s="48"/>
+      <c r="B73" s="48"/>
+      <c r="C73" s="48"/>
+      <c r="D73" s="48"/>
+      <c r="E73" s="49"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="44"/>
-      <c r="B74" s="44"/>
-      <c r="C74" s="44"/>
-      <c r="D74" s="44"/>
-      <c r="E74" s="45"/>
+      <c r="A74" s="48"/>
+      <c r="B74" s="48"/>
+      <c r="C74" s="48"/>
+      <c r="D74" s="48"/>
+      <c r="E74" s="49"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="44"/>
-      <c r="B75" s="44"/>
-      <c r="C75" s="44"/>
-      <c r="D75" s="44"/>
-      <c r="E75" s="45"/>
+      <c r="A75" s="48"/>
+      <c r="B75" s="48"/>
+      <c r="C75" s="48"/>
+      <c r="D75" s="48"/>
+      <c r="E75" s="49"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="44"/>
-      <c r="B76" s="44"/>
-      <c r="C76" s="44"/>
-      <c r="D76" s="44"/>
-      <c r="E76" s="45"/>
+      <c r="A76" s="48"/>
+      <c r="B76" s="48"/>
+      <c r="C76" s="48"/>
+      <c r="D76" s="48"/>
+      <c r="E76" s="49"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="44"/>
-      <c r="B77" s="44"/>
-      <c r="C77" s="44"/>
-      <c r="D77" s="44"/>
-      <c r="E77" s="45"/>
+      <c r="A77" s="48"/>
+      <c r="B77" s="48"/>
+      <c r="C77" s="48"/>
+      <c r="D77" s="48"/>
+      <c r="E77" s="49"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="44"/>
-      <c r="B78" s="44"/>
-      <c r="C78" s="44"/>
-      <c r="D78" s="44"/>
-      <c r="E78" s="45"/>
+      <c r="A78" s="48"/>
+      <c r="B78" s="48"/>
+      <c r="C78" s="48"/>
+      <c r="D78" s="48"/>
+      <c r="E78" s="49"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="50"/>
-      <c r="B79" s="50"/>
-      <c r="C79" s="50"/>
-      <c r="D79" s="50"/>
-      <c r="E79" s="51"/>
+      <c r="A79" s="66"/>
+      <c r="B79" s="66"/>
+      <c r="C79" s="66"/>
+      <c r="D79" s="66"/>
+      <c r="E79" s="67"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="41" t="s">
+      <c r="A80" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="B80" s="42"/>
-      <c r="C80" s="42"/>
-      <c r="D80" s="42"/>
-      <c r="E80" s="43"/>
+      <c r="B80" s="40"/>
+      <c r="C80" s="40"/>
+      <c r="D80" s="40"/>
+      <c r="E80" s="41"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="42"/>
-      <c r="B81" s="42"/>
-      <c r="C81" s="42"/>
-      <c r="D81" s="42"/>
-      <c r="E81" s="43"/>
+      <c r="A81" s="40"/>
+      <c r="B81" s="40"/>
+      <c r="C81" s="40"/>
+      <c r="D81" s="40"/>
+      <c r="E81" s="41"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="44" t="s">
+      <c r="A82" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="B82" s="44"/>
-      <c r="C82" s="44"/>
-      <c r="D82" s="44"/>
-      <c r="E82" s="45"/>
+      <c r="B82" s="48"/>
+      <c r="C82" s="48"/>
+      <c r="D82" s="48"/>
+      <c r="E82" s="49"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="44"/>
-      <c r="B83" s="44"/>
-      <c r="C83" s="44"/>
-      <c r="D83" s="44"/>
-      <c r="E83" s="45"/>
+      <c r="A83" s="48"/>
+      <c r="B83" s="48"/>
+      <c r="C83" s="48"/>
+      <c r="D83" s="48"/>
+      <c r="E83" s="49"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="44"/>
-      <c r="B84" s="44"/>
-      <c r="C84" s="44"/>
-      <c r="D84" s="44"/>
-      <c r="E84" s="45"/>
+      <c r="A84" s="48"/>
+      <c r="B84" s="48"/>
+      <c r="C84" s="48"/>
+      <c r="D84" s="48"/>
+      <c r="E84" s="49"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="44"/>
-      <c r="B85" s="44"/>
-      <c r="C85" s="44"/>
-      <c r="D85" s="44"/>
-      <c r="E85" s="45"/>
+      <c r="A85" s="48"/>
+      <c r="B85" s="48"/>
+      <c r="C85" s="48"/>
+      <c r="D85" s="48"/>
+      <c r="E85" s="49"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="44"/>
-      <c r="B86" s="44"/>
-      <c r="C86" s="44"/>
-      <c r="D86" s="44"/>
-      <c r="E86" s="45"/>
+      <c r="A86" s="48"/>
+      <c r="B86" s="48"/>
+      <c r="C86" s="48"/>
+      <c r="D86" s="48"/>
+      <c r="E86" s="49"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="44"/>
-      <c r="B87" s="44"/>
-      <c r="C87" s="44"/>
-      <c r="D87" s="44"/>
-      <c r="E87" s="45"/>
+      <c r="A87" s="48"/>
+      <c r="B87" s="48"/>
+      <c r="C87" s="48"/>
+      <c r="D87" s="48"/>
+      <c r="E87" s="49"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="44"/>
-      <c r="B88" s="44"/>
-      <c r="C88" s="44"/>
-      <c r="D88" s="44"/>
-      <c r="E88" s="45"/>
+      <c r="A88" s="48"/>
+      <c r="B88" s="48"/>
+      <c r="C88" s="48"/>
+      <c r="D88" s="48"/>
+      <c r="E88" s="49"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="44"/>
-      <c r="B89" s="44"/>
-      <c r="C89" s="44"/>
-      <c r="D89" s="44"/>
-      <c r="E89" s="45"/>
+      <c r="A89" s="48"/>
+      <c r="B89" s="48"/>
+      <c r="C89" s="48"/>
+      <c r="D89" s="48"/>
+      <c r="E89" s="49"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="34"/>
-      <c r="B90" s="34"/>
-      <c r="C90" s="34"/>
-      <c r="D90" s="34"/>
-      <c r="E90" s="35"/>
+      <c r="A90" s="50"/>
+      <c r="B90" s="50"/>
+      <c r="C90" s="50"/>
+      <c r="D90" s="50"/>
+      <c r="E90" s="51"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="41" t="s">
+      <c r="A91" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B91" s="42"/>
-      <c r="C91" s="42"/>
-      <c r="D91" s="42"/>
-      <c r="E91" s="43"/>
+      <c r="B91" s="40"/>
+      <c r="C91" s="40"/>
+      <c r="D91" s="40"/>
+      <c r="E91" s="41"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="42"/>
-      <c r="B92" s="42"/>
-      <c r="C92" s="42"/>
-      <c r="D92" s="42"/>
-      <c r="E92" s="43"/>
+      <c r="A92" s="40"/>
+      <c r="B92" s="40"/>
+      <c r="C92" s="40"/>
+      <c r="D92" s="40"/>
+      <c r="E92" s="41"/>
     </row>
     <row r="93" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="44" t="s">
+      <c r="A93" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="B93" s="44"/>
-      <c r="C93" s="44"/>
-      <c r="D93" s="44"/>
-      <c r="E93" s="45"/>
+      <c r="B93" s="48"/>
+      <c r="C93" s="48"/>
+      <c r="D93" s="48"/>
+      <c r="E93" s="49"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="44"/>
-      <c r="B94" s="44"/>
-      <c r="C94" s="44"/>
-      <c r="D94" s="44"/>
-      <c r="E94" s="45"/>
+      <c r="A94" s="48"/>
+      <c r="B94" s="48"/>
+      <c r="C94" s="48"/>
+      <c r="D94" s="48"/>
+      <c r="E94" s="49"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="44"/>
-      <c r="B95" s="44"/>
-      <c r="C95" s="44"/>
-      <c r="D95" s="44"/>
-      <c r="E95" s="45"/>
+      <c r="A95" s="48"/>
+      <c r="B95" s="48"/>
+      <c r="C95" s="48"/>
+      <c r="D95" s="48"/>
+      <c r="E95" s="49"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="44"/>
-      <c r="B96" s="44"/>
-      <c r="C96" s="44"/>
-      <c r="D96" s="44"/>
-      <c r="E96" s="45"/>
+      <c r="A96" s="48"/>
+      <c r="B96" s="48"/>
+      <c r="C96" s="48"/>
+      <c r="D96" s="48"/>
+      <c r="E96" s="49"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="44"/>
-      <c r="B97" s="44"/>
-      <c r="C97" s="44"/>
-      <c r="D97" s="44"/>
-      <c r="E97" s="45"/>
+      <c r="A97" s="48"/>
+      <c r="B97" s="48"/>
+      <c r="C97" s="48"/>
+      <c r="D97" s="48"/>
+      <c r="E97" s="49"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="44"/>
-      <c r="B98" s="44"/>
-      <c r="C98" s="44"/>
-      <c r="D98" s="44"/>
-      <c r="E98" s="45"/>
+      <c r="A98" s="48"/>
+      <c r="B98" s="48"/>
+      <c r="C98" s="48"/>
+      <c r="D98" s="48"/>
+      <c r="E98" s="49"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="44"/>
-      <c r="B99" s="44"/>
-      <c r="C99" s="44"/>
-      <c r="D99" s="44"/>
-      <c r="E99" s="45"/>
+      <c r="A99" s="48"/>
+      <c r="B99" s="48"/>
+      <c r="C99" s="48"/>
+      <c r="D99" s="48"/>
+      <c r="E99" s="49"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="44"/>
-      <c r="B100" s="44"/>
-      <c r="C100" s="44"/>
-      <c r="D100" s="44"/>
-      <c r="E100" s="45"/>
+      <c r="A100" s="48"/>
+      <c r="B100" s="48"/>
+      <c r="C100" s="48"/>
+      <c r="D100" s="48"/>
+      <c r="E100" s="49"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="34"/>
-      <c r="B101" s="34"/>
-      <c r="C101" s="34"/>
-      <c r="D101" s="34"/>
-      <c r="E101" s="35"/>
+      <c r="A101" s="50"/>
+      <c r="B101" s="50"/>
+      <c r="C101" s="50"/>
+      <c r="D101" s="50"/>
+      <c r="E101" s="51"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="41" t="s">
+      <c r="A102" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B102" s="42"/>
-      <c r="C102" s="42"/>
-      <c r="D102" s="42"/>
-      <c r="E102" s="43"/>
+      <c r="B102" s="40"/>
+      <c r="C102" s="40"/>
+      <c r="D102" s="40"/>
+      <c r="E102" s="41"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="42"/>
-      <c r="B103" s="42"/>
-      <c r="C103" s="42"/>
-      <c r="D103" s="42"/>
-      <c r="E103" s="43"/>
+      <c r="A103" s="40"/>
+      <c r="B103" s="40"/>
+      <c r="C103" s="40"/>
+      <c r="D103" s="40"/>
+      <c r="E103" s="41"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="44" t="s">
+      <c r="A104" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="B104" s="44"/>
-      <c r="C104" s="44"/>
-      <c r="D104" s="44"/>
-      <c r="E104" s="45"/>
+      <c r="B104" s="48"/>
+      <c r="C104" s="48"/>
+      <c r="D104" s="48"/>
+      <c r="E104" s="49"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="44"/>
-      <c r="B105" s="44"/>
-      <c r="C105" s="44"/>
-      <c r="D105" s="44"/>
-      <c r="E105" s="45"/>
+      <c r="A105" s="48"/>
+      <c r="B105" s="48"/>
+      <c r="C105" s="48"/>
+      <c r="D105" s="48"/>
+      <c r="E105" s="49"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="44"/>
-      <c r="B106" s="44"/>
-      <c r="C106" s="44"/>
-      <c r="D106" s="44"/>
-      <c r="E106" s="45"/>
+      <c r="A106" s="48"/>
+      <c r="B106" s="48"/>
+      <c r="C106" s="48"/>
+      <c r="D106" s="48"/>
+      <c r="E106" s="49"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="44"/>
-      <c r="B107" s="44"/>
-      <c r="C107" s="44"/>
-      <c r="D107" s="44"/>
-      <c r="E107" s="45"/>
+      <c r="A107" s="48"/>
+      <c r="B107" s="48"/>
+      <c r="C107" s="48"/>
+      <c r="D107" s="48"/>
+      <c r="E107" s="49"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="44"/>
-      <c r="B108" s="44"/>
-      <c r="C108" s="44"/>
-      <c r="D108" s="44"/>
-      <c r="E108" s="45"/>
+      <c r="A108" s="48"/>
+      <c r="B108" s="48"/>
+      <c r="C108" s="48"/>
+      <c r="D108" s="48"/>
+      <c r="E108" s="49"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="44"/>
-      <c r="B109" s="44"/>
-      <c r="C109" s="44"/>
-      <c r="D109" s="44"/>
-      <c r="E109" s="45"/>
+      <c r="A109" s="48"/>
+      <c r="B109" s="48"/>
+      <c r="C109" s="48"/>
+      <c r="D109" s="48"/>
+      <c r="E109" s="49"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="44"/>
-      <c r="B110" s="44"/>
-      <c r="C110" s="44"/>
-      <c r="D110" s="44"/>
-      <c r="E110" s="45"/>
+      <c r="A110" s="48"/>
+      <c r="B110" s="48"/>
+      <c r="C110" s="48"/>
+      <c r="D110" s="48"/>
+      <c r="E110" s="49"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="44"/>
-      <c r="B111" s="44"/>
-      <c r="C111" s="44"/>
-      <c r="D111" s="44"/>
-      <c r="E111" s="45"/>
+      <c r="A111" s="48"/>
+      <c r="B111" s="48"/>
+      <c r="C111" s="48"/>
+      <c r="D111" s="48"/>
+      <c r="E111" s="49"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="34"/>
-      <c r="B112" s="34"/>
-      <c r="C112" s="34"/>
-      <c r="D112" s="34"/>
-      <c r="E112" s="35"/>
+      <c r="A112" s="50"/>
+      <c r="B112" s="50"/>
+      <c r="C112" s="50"/>
+      <c r="D112" s="50"/>
+      <c r="E112" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A44:E45"/>
-    <mergeCell ref="A46:E47"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A41:E42"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A33:E39"/>
+    <mergeCell ref="A112:E112"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A58:E59"/>
+    <mergeCell ref="A91:E92"/>
+    <mergeCell ref="A93:E100"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="A69:E70"/>
+    <mergeCell ref="A60:E62"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="A64:E65"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A71:E78"/>
+    <mergeCell ref="A102:E103"/>
+    <mergeCell ref="A104:E111"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A49:E50"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A79:E79"/>
     <mergeCell ref="A80:E81"/>
     <mergeCell ref="A82:E89"/>
     <mergeCell ref="A90:E90"/>
@@ -6049,27 +6055,15 @@
     <mergeCell ref="A20:E21"/>
     <mergeCell ref="A55:E55"/>
     <mergeCell ref="A27:E29"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A49:E50"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="A112:E112"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="A58:E59"/>
-    <mergeCell ref="A91:E92"/>
-    <mergeCell ref="A93:E100"/>
-    <mergeCell ref="A101:E101"/>
-    <mergeCell ref="A69:E70"/>
-    <mergeCell ref="A60:E62"/>
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="A64:E65"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A71:E78"/>
-    <mergeCell ref="A102:E103"/>
-    <mergeCell ref="A104:E111"/>
+    <mergeCell ref="A44:E45"/>
+    <mergeCell ref="A46:E47"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A41:E42"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A33:E39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6101,100 +6095,100 @@
     <row r="1" spans="1:27" s="3" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7"/>
       <c r="B1" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="U1" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="W1" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="X1" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="Y1" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="Z1" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AA1" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B2" s="8"/>
     </row>
     <row r="3" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -6202,7 +6196,7 @@
     </row>
     <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -6211,7 +6205,7 @@
     </row>
     <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -6221,7 +6215,7 @@
     </row>
     <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -6232,7 +6226,7 @@
     </row>
     <row r="8" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -6244,7 +6238,7 @@
     </row>
     <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -6257,7 +6251,7 @@
     </row>
     <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -6271,7 +6265,7 @@
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -6286,7 +6280,7 @@
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -6302,7 +6296,7 @@
     </row>
     <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -6319,7 +6313,7 @@
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -6337,7 +6331,7 @@
     </row>
     <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -6356,7 +6350,7 @@
     </row>
     <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -6376,7 +6370,7 @@
     </row>
     <row r="17" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -6397,7 +6391,7 @@
     </row>
     <row r="18" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -6419,7 +6413,7 @@
     </row>
     <row r="19" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -6442,7 +6436,7 @@
     </row>
     <row r="20" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -6466,7 +6460,7 @@
     </row>
     <row r="21" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -6491,7 +6485,7 @@
     </row>
     <row r="22" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -6517,7 +6511,7 @@
     </row>
     <row r="23" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -6544,7 +6538,7 @@
     </row>
     <row r="24" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -6572,7 +6566,7 @@
     </row>
     <row r="25" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -6601,7 +6595,7 @@
     </row>
     <row r="26" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -6631,7 +6625,7 @@
     </row>
     <row r="27" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -6686,34 +6680,34 @@
     <row r="1" spans="1:16" s="3" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="B1" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>406</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>408</v>
       </c>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -6723,42 +6717,42 @@
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -6768,10 +6762,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B4773B-09CB-4AE1-B7A2-EA1A4F4D3191}">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6806,7 +6800,7 @@
         <v>43</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>49</v>
@@ -6889,7 +6883,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D10" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E10" s="24">
         <v>9</v>
@@ -7045,22 +7039,6 @@
       </c>
       <c r="E29" s="24">
         <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D30" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="E30" s="24">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D31" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="E31" s="24">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -7075,7 +7053,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AC157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
     </sheetView>
@@ -7097,7 +7075,7 @@
   <sheetData>
     <row r="1" spans="1:29" s="7" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>2</v>
@@ -7130,66 +7108,66 @@
         <v>5</v>
       </c>
       <c r="L1" s="29" t="s">
+        <v>389</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>390</v>
+      </c>
+      <c r="N1" s="29" t="s">
         <v>391</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="O1" s="29" t="s">
         <v>392</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="P1" s="29" t="s">
         <v>393</v>
       </c>
-      <c r="O1" s="29" t="s">
+      <c r="Q1" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="P1" s="29" t="s">
+      <c r="R1" s="29" t="s">
         <v>395</v>
       </c>
-      <c r="Q1" s="29" t="s">
+      <c r="S1" s="29" t="s">
         <v>396</v>
       </c>
-      <c r="R1" s="29" t="s">
+      <c r="T1" s="30" t="s">
         <v>397</v>
       </c>
-      <c r="S1" s="29" t="s">
+      <c r="U1" s="30" t="s">
         <v>398</v>
       </c>
-      <c r="T1" s="30" t="s">
+      <c r="V1" s="30" t="s">
         <v>399</v>
       </c>
-      <c r="U1" s="30" t="s">
+      <c r="W1" s="30" t="s">
         <v>400</v>
       </c>
-      <c r="V1" s="30" t="s">
+      <c r="X1" s="30" t="s">
         <v>401</v>
       </c>
-      <c r="W1" s="30" t="s">
+      <c r="Y1" s="30" t="s">
         <v>402</v>
       </c>
-      <c r="X1" s="30" t="s">
+      <c r="Z1" s="30" t="s">
         <v>403</v>
       </c>
-      <c r="Y1" s="30" t="s">
+      <c r="AA1" s="30" t="s">
         <v>404</v>
       </c>
-      <c r="Z1" s="30" t="s">
+      <c r="AB1" s="30" t="s">
         <v>405</v>
       </c>
-      <c r="AA1" s="30" t="s">
+      <c r="AC1" s="30" t="s">
         <v>406</v>
-      </c>
-      <c r="AB1" s="30" t="s">
-        <v>407</v>
-      </c>
-      <c r="AC1" s="30" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -7209,7 +7187,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="9" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="K2" s="9"/>
       <c r="R2" s="1"/>
@@ -7220,10 +7198,10 @@
     </row>
     <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -7243,7 +7221,7 @@
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="9" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="K3" s="9"/>
       <c r="R3" s="1"/>
@@ -7254,10 +7232,10 @@
     </row>
     <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -7277,7 +7255,7 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="K4" s="9"/>
       <c r="R4" s="1"/>
@@ -7288,10 +7266,10 @@
     </row>
     <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -7311,7 +7289,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="9" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="K5" s="9"/>
       <c r="R5" s="1"/>
@@ -7322,10 +7300,10 @@
     </row>
     <row r="6" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -7345,7 +7323,7 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="9" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="K6" s="9"/>
       <c r="R6" s="1"/>
@@ -7356,10 +7334,10 @@
     </row>
     <row r="7" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -7379,7 +7357,7 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="K7" s="9"/>
       <c r="R7" s="1"/>
@@ -7390,10 +7368,10 @@
     </row>
     <row r="8" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -7413,7 +7391,7 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="9" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="K8" s="9"/>
       <c r="R8" s="1"/>
@@ -7424,10 +7402,10 @@
     </row>
     <row r="9" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -7447,7 +7425,7 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="9" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="K9" s="9"/>
       <c r="R9" s="1"/>
@@ -7458,10 +7436,10 @@
     </row>
     <row r="10" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -7481,7 +7459,7 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="9" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="K10" s="9"/>
       <c r="R10" s="1"/>
@@ -7492,10 +7470,10 @@
     </row>
     <row r="11" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -7515,7 +7493,7 @@
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="9" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="K11" s="9"/>
       <c r="R11" s="1"/>
@@ -7526,10 +7504,10 @@
     </row>
     <row r="12" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
@@ -7549,7 +7527,7 @@
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="9" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K12" s="9"/>
       <c r="R12" s="1"/>
@@ -7560,10 +7538,10 @@
     </row>
     <row r="13" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -7583,7 +7561,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="9" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="K13" s="9"/>
       <c r="R13" s="1"/>
@@ -7594,10 +7572,10 @@
     </row>
     <row r="14" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
@@ -7617,7 +7595,7 @@
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="9" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="K14" s="9"/>
       <c r="R14" s="1"/>
@@ -7628,10 +7606,10 @@
     </row>
     <row r="15" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -7651,7 +7629,7 @@
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="9" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="K15" s="9"/>
       <c r="R15" s="1"/>
@@ -7662,10 +7640,10 @@
     </row>
     <row r="16" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -7685,7 +7663,7 @@
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="9" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="K16" s="9"/>
       <c r="R16" s="1"/>
@@ -7696,10 +7674,10 @@
     </row>
     <row r="17" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
@@ -7719,7 +7697,7 @@
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="9" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="K17" s="9"/>
       <c r="R17" s="1"/>
@@ -7730,10 +7708,10 @@
     </row>
     <row r="18" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
@@ -7753,7 +7731,7 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="9" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="K18" s="9"/>
       <c r="R18" s="1"/>
@@ -7764,10 +7742,10 @@
     </row>
     <row r="19" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -7787,7 +7765,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="9" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
@@ -7796,10 +7774,10 @@
     </row>
     <row r="20" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -7819,7 +7797,7 @@
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="9" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
@@ -7828,10 +7806,10 @@
     </row>
     <row r="21" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
@@ -7851,7 +7829,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="9" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
@@ -7860,10 +7838,10 @@
     </row>
     <row r="22" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
@@ -7883,7 +7861,7 @@
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="9" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -7892,10 +7870,10 @@
     </row>
     <row r="23" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
@@ -7915,7 +7893,7 @@
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="9" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
@@ -7924,10 +7902,10 @@
     </row>
     <row r="24" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
@@ -7947,7 +7925,7 @@
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="9" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K24" s="9"/>
       <c r="R24" s="1"/>
@@ -7957,10 +7935,10 @@
     </row>
     <row r="25" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
@@ -7980,7 +7958,7 @@
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="9" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="K25" s="9"/>
       <c r="R25" s="1"/>
@@ -7990,10 +7968,10 @@
     </row>
     <row r="26" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
@@ -8013,7 +7991,7 @@
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="9" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="K26" s="9"/>
       <c r="R26" s="1"/>
@@ -8023,10 +8001,10 @@
     </row>
     <row r="27" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
@@ -8046,7 +8024,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="9" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="K27" s="9"/>
       <c r="R27" s="1"/>
@@ -8056,10 +8034,10 @@
     </row>
     <row r="28" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="27" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
@@ -8079,7 +8057,7 @@
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="9" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
@@ -8088,10 +8066,10 @@
     </row>
     <row r="29" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
@@ -8111,7 +8089,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="9" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
@@ -8120,10 +8098,10 @@
     </row>
     <row r="30" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="27" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
@@ -8143,7 +8121,7 @@
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="9" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
@@ -8152,10 +8130,10 @@
     </row>
     <row r="31" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
@@ -8174,7 +8152,7 @@
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="9" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
@@ -8183,10 +8161,10 @@
     </row>
     <row r="32" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
@@ -8206,7 +8184,7 @@
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="9" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
@@ -8215,10 +8193,10 @@
     </row>
     <row r="33" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="27" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
@@ -8238,7 +8216,7 @@
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="9" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="K33" s="9"/>
       <c r="R33" s="1"/>
@@ -8248,10 +8226,10 @@
     </row>
     <row r="34" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="27" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
@@ -8271,7 +8249,7 @@
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="9" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="K34" s="9"/>
       <c r="R34" s="1"/>
@@ -8281,10 +8259,10 @@
     </row>
     <row r="35" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="27" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
@@ -8304,7 +8282,7 @@
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="9" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="K35" s="9"/>
       <c r="O35" s="1">
@@ -8319,10 +8297,10 @@
     </row>
     <row r="36" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="27" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
@@ -8342,7 +8320,7 @@
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36" s="9" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
@@ -8351,10 +8329,10 @@
     </row>
     <row r="37" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="27" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
@@ -8374,7 +8352,7 @@
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="K37" s="9"/>
       <c r="R37" s="1"/>
@@ -8384,10 +8362,10 @@
     </row>
     <row r="38" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="27" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C38" s="1">
         <v>1</v>
@@ -8407,7 +8385,7 @@
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
       <c r="J38" s="9" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="K38" s="9"/>
       <c r="R38" s="1"/>
@@ -8417,10 +8395,10 @@
     </row>
     <row r="39" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="27" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C39" s="1">
         <v>1</v>
@@ -8438,16 +8416,16 @@
         <v>1</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="S39" s="1"/>
     </row>
     <row r="40" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="27" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C40" s="1">
         <v>1</v>
@@ -8465,16 +8443,16 @@
         <v>1</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="S40" s="1"/>
     </row>
     <row r="41" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="27" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C41" s="1">
         <v>1</v>
@@ -8492,16 +8470,16 @@
         <v>1</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="S41" s="1"/>
     </row>
     <row r="42" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="27" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
@@ -8519,16 +8497,16 @@
         <v>1</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="S42" s="1"/>
     </row>
     <row r="43" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="27" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
@@ -8546,16 +8524,16 @@
         <v>1</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="S43" s="1"/>
     </row>
     <row r="44" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="27" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C44" s="1">
         <v>1</v>
@@ -8573,16 +8551,16 @@
         <v>1</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="S44" s="1"/>
     </row>
     <row r="45" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="27" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C45" s="1">
         <v>1</v>
@@ -8600,16 +8578,16 @@
         <v>1</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="S45" s="1"/>
     </row>
     <row r="46" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="27" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C46" s="1">
         <v>1</v>
@@ -8627,16 +8605,16 @@
         <v>1</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="S46" s="1"/>
     </row>
     <row r="47" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="27" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C47" s="1">
         <v>1</v>
@@ -8654,16 +8632,16 @@
         <v>1</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="S47" s="1"/>
     </row>
     <row r="48" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="27" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C48" s="1">
         <v>1</v>
@@ -8681,16 +8659,16 @@
         <v>1</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="S48" s="1"/>
     </row>
     <row r="49" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="27" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C49" s="1">
         <v>1</v>
@@ -8708,16 +8686,16 @@
         <v>1</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="S49" s="1"/>
     </row>
     <row r="50" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="27" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C50" s="1">
         <v>1</v>
@@ -8735,16 +8713,16 @@
         <v>1</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S50" s="1"/>
     </row>
     <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="27" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C51" s="1">
         <v>1</v>
@@ -8762,16 +8740,16 @@
         <v>1</v>
       </c>
       <c r="J51" s="9" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="S51" s="1"/>
     </row>
     <row r="52" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="27" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B52" s="27" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C52" s="1">
         <v>1</v>
@@ -8789,16 +8767,16 @@
         <v>1</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="S52" s="1"/>
     </row>
     <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B53" s="27" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C53" s="1">
         <v>1</v>
@@ -8816,16 +8794,16 @@
         <v>1</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="S53" s="1"/>
     </row>
     <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="27" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B54" s="27" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C54" s="1">
         <v>1</v>
@@ -8843,16 +8821,16 @@
         <v>1</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="S54" s="1"/>
     </row>
     <row r="55" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="27" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B55" s="27" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C55" s="1">
         <v>1</v>
@@ -8870,16 +8848,16 @@
         <v>1</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="S55" s="1"/>
     </row>
     <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="27" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B56" s="27" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C56" s="1">
         <v>1</v>
@@ -8897,16 +8875,16 @@
         <v>1</v>
       </c>
       <c r="J56" s="9" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="S56" s="1"/>
     </row>
     <row r="57" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="27" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B57" s="27" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C57" s="1">
         <v>1</v>
@@ -8924,16 +8902,16 @@
         <v>1</v>
       </c>
       <c r="J57" s="9" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="S57" s="1"/>
     </row>
     <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="27" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B58" s="27" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C58" s="1">
         <v>1</v>
@@ -8951,16 +8929,16 @@
         <v>1</v>
       </c>
       <c r="J58" s="9" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="S58" s="1"/>
     </row>
     <row r="59" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="27" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B59" s="27" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C59" s="1">
         <v>1</v>
@@ -8978,16 +8956,16 @@
         <v>1</v>
       </c>
       <c r="J59" s="9" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="S59" s="1"/>
     </row>
     <row r="60" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="27" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B60" s="27" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C60" s="1">
         <v>1</v>
@@ -9005,16 +8983,16 @@
         <v>1</v>
       </c>
       <c r="J60" s="9" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="S60" s="1"/>
     </row>
     <row r="61" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="27" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B61" s="27" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C61" s="1">
         <v>1</v>
@@ -9032,16 +9010,16 @@
         <v>1</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="S61" s="1"/>
     </row>
     <row r="62" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="27" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B62" s="27" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C62" s="1">
         <v>1</v>
@@ -9059,16 +9037,16 @@
         <v>1</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="S62" s="1"/>
     </row>
     <row r="63" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="27" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B63" s="27" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C63" s="1">
         <v>1</v>
@@ -9086,16 +9064,16 @@
         <v>1</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="S63" s="1"/>
     </row>
     <row r="64" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="27" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B64" s="27" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C64" s="1">
         <v>1</v>
@@ -9113,16 +9091,16 @@
         <v>1</v>
       </c>
       <c r="J64" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="S64" s="1"/>
     </row>
     <row r="65" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="27" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B65" s="27" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C65" s="1">
         <v>1</v>
@@ -9140,16 +9118,16 @@
         <v>1</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="S65" s="1"/>
     </row>
     <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="27" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B66" s="27" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C66" s="1">
         <v>1</v>
@@ -9167,16 +9145,16 @@
         <v>1</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="S66" s="1"/>
     </row>
     <row r="67" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="27" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B67" s="27" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C67" s="1">
         <v>1</v>
@@ -9194,16 +9172,16 @@
         <v>1</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="S67" s="1"/>
     </row>
     <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="27" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C68" s="1">
         <v>1</v>
@@ -9221,16 +9199,16 @@
         <v>1</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="S68" s="1"/>
     </row>
     <row r="69" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="27" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B69" s="27" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C69" s="1">
         <v>1</v>
@@ -9248,16 +9226,16 @@
         <v>1</v>
       </c>
       <c r="J69" s="9" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="S69" s="1"/>
     </row>
     <row r="70" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="27" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B70" s="27" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C70" s="1">
         <v>1</v>
@@ -9275,16 +9253,16 @@
         <v>1</v>
       </c>
       <c r="J70" s="9" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="S70" s="1"/>
     </row>
     <row r="71" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="27" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B71" s="27" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C71" s="1">
         <v>1</v>
@@ -9302,16 +9280,16 @@
         <v>1</v>
       </c>
       <c r="J71" s="9" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="S71" s="1"/>
     </row>
     <row r="72" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="27" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B72" s="27" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C72" s="1">
         <v>1</v>
@@ -9329,16 +9307,16 @@
         <v>1</v>
       </c>
       <c r="J72" s="9" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="S72" s="1"/>
     </row>
     <row r="73" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="27" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B73" s="27" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C73" s="1">
         <v>1</v>
@@ -9356,16 +9334,16 @@
         <v>1</v>
       </c>
       <c r="J73" s="9" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="S73" s="1"/>
     </row>
     <row r="74" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="27" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B74" s="27" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C74" s="1">
         <v>1</v>
@@ -9383,16 +9361,16 @@
         <v>1</v>
       </c>
       <c r="J74" s="9" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="S74" s="1"/>
     </row>
     <row r="75" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B75" s="27" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C75" s="1">
         <v>1</v>
@@ -9410,16 +9388,16 @@
         <v>1</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="S75" s="1"/>
     </row>
     <row r="76" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="27" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B76" s="27" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C76" s="1">
         <v>1</v>
@@ -9437,16 +9415,16 @@
         <v>1</v>
       </c>
       <c r="J76" s="9" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="S76" s="1"/>
     </row>
     <row r="77" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="27" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B77" s="27" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C77" s="1">
         <v>1</v>
@@ -9464,16 +9442,16 @@
         <v>1</v>
       </c>
       <c r="J77" s="9" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="S77" s="1"/>
     </row>
     <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="27" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B78" s="27" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C78" s="1">
         <v>1</v>
@@ -9491,16 +9469,16 @@
         <v>1</v>
       </c>
       <c r="J78" s="9" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="S78" s="1"/>
     </row>
     <row r="79" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="27" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B79" s="27" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C79" s="1">
         <v>1</v>
@@ -9518,16 +9496,16 @@
         <v>1</v>
       </c>
       <c r="J79" s="9" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="S79" s="1"/>
     </row>
     <row r="80" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="27" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B80" s="27" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C80" s="1">
         <v>1</v>
@@ -9545,16 +9523,16 @@
         <v>1</v>
       </c>
       <c r="J80" s="9" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="S80" s="1"/>
     </row>
     <row r="81" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="27" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B81" s="27" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C81" s="1">
         <v>1</v>
@@ -9572,16 +9550,16 @@
         <v>1</v>
       </c>
       <c r="J81" s="9" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="S81" s="1"/>
     </row>
     <row r="82" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="27" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B82" s="27" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C82" s="1">
         <v>1</v>
@@ -9599,16 +9577,16 @@
         <v>1</v>
       </c>
       <c r="J82" s="9" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="S82" s="1"/>
     </row>
     <row r="83" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="27" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B83" s="27" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C83" s="1">
         <v>1</v>
@@ -9626,16 +9604,16 @@
         <v>1</v>
       </c>
       <c r="J83" s="9" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="S83" s="1"/>
     </row>
     <row r="84" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="27" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B84" s="27" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C84" s="1">
         <v>1</v>
@@ -9653,16 +9631,16 @@
         <v>1</v>
       </c>
       <c r="J84" s="9" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="S84" s="1"/>
     </row>
     <row r="85" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="27" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B85" s="27" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C85" s="1">
         <v>1</v>
@@ -9680,16 +9658,16 @@
         <v>1</v>
       </c>
       <c r="J85" s="9" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="S85" s="1"/>
     </row>
     <row r="86" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="27" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B86" s="27" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C86" s="1">
         <v>1</v>
@@ -9707,16 +9685,16 @@
         <v>1</v>
       </c>
       <c r="J86" s="9" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="S86" s="1"/>
     </row>
     <row r="87" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="27" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B87" s="27" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C87" s="1">
         <v>1</v>
@@ -9734,16 +9712,16 @@
         <v>1</v>
       </c>
       <c r="J87" s="9" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="S87" s="1"/>
     </row>
     <row r="88" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="27" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B88" s="27" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C88" s="1">
         <v>1</v>
@@ -9761,16 +9739,16 @@
         <v>1</v>
       </c>
       <c r="J88" s="9" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="S88" s="1"/>
     </row>
     <row r="89" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="27" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B89" s="27" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C89" s="1">
         <v>1</v>
@@ -9788,16 +9766,16 @@
         <v>1</v>
       </c>
       <c r="J89" s="9" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="S89" s="1"/>
     </row>
     <row r="90" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="27" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B90" s="27" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C90" s="1">
         <v>1</v>
@@ -9815,16 +9793,16 @@
         <v>1</v>
       </c>
       <c r="J90" s="9" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="S90" s="1"/>
     </row>
     <row r="91" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="27" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B91" s="27" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C91" s="1">
         <v>1</v>
@@ -9842,16 +9820,16 @@
         <v>1</v>
       </c>
       <c r="J91" s="9" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="S91" s="1"/>
     </row>
     <row r="92" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="27" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B92" s="27" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C92" s="1">
         <v>1</v>
@@ -9869,16 +9847,16 @@
         <v>1</v>
       </c>
       <c r="J92" s="9" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="S92" s="1"/>
     </row>
     <row r="93" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="27" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B93" s="27" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C93" s="1">
         <v>1</v>
@@ -9896,16 +9874,16 @@
         <v>1</v>
       </c>
       <c r="J93" s="9" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="S93" s="1"/>
     </row>
     <row r="94" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="27" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B94" s="27" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C94" s="1">
         <v>1</v>
@@ -9923,16 +9901,16 @@
         <v>1</v>
       </c>
       <c r="J94" s="9" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="S94" s="1"/>
     </row>
     <row r="95" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="27" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B95" s="27" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C95" s="1">
         <v>1</v>
@@ -9950,16 +9928,16 @@
         <v>1</v>
       </c>
       <c r="J95" s="9" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="S95" s="1"/>
     </row>
     <row r="96" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="27" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B96" s="27" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C96" s="1">
         <v>1</v>
@@ -9977,16 +9955,16 @@
         <v>1</v>
       </c>
       <c r="J96" s="9" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="S96" s="1"/>
     </row>
     <row r="97" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="27" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B97" s="27" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C97" s="1">
         <v>1</v>
@@ -10004,16 +9982,16 @@
         <v>1</v>
       </c>
       <c r="J97" s="9" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="S97" s="1"/>
     </row>
     <row r="98" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="27" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B98" s="27" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C98" s="1">
         <v>1</v>
@@ -10031,16 +10009,16 @@
         <v>1</v>
       </c>
       <c r="J98" s="9" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="S98" s="1"/>
     </row>
     <row r="99" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="27" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B99" s="27" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C99" s="1">
         <v>1</v>
@@ -10058,16 +10036,16 @@
         <v>1</v>
       </c>
       <c r="J99" s="9" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="S99" s="1"/>
     </row>
     <row r="100" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="27" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B100" s="27" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C100" s="1">
         <v>1</v>
@@ -10085,16 +10063,16 @@
         <v>1</v>
       </c>
       <c r="J100" s="9" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="S100" s="1"/>
     </row>
     <row r="101" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="27" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B101" s="27" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C101" s="1">
         <v>1</v>
@@ -10112,16 +10090,16 @@
         <v>1</v>
       </c>
       <c r="J101" s="9" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="S101" s="1"/>
     </row>
     <row r="102" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="27" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B102" s="27" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C102" s="1">
         <v>1</v>
@@ -10139,16 +10117,16 @@
         <v>1</v>
       </c>
       <c r="J102" s="9" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="S102" s="1"/>
     </row>
     <row r="103" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="27" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B103" s="27" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C103" s="1">
         <v>1</v>
@@ -10166,16 +10144,16 @@
         <v>1</v>
       </c>
       <c r="J103" s="9" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="S103" s="1"/>
     </row>
     <row r="104" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="27" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B104" s="27" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C104" s="1">
         <v>1</v>
@@ -10193,16 +10171,16 @@
         <v>1</v>
       </c>
       <c r="J104" s="9" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="S104" s="1"/>
     </row>
     <row r="105" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="27" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B105" s="27" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C105" s="1">
         <v>1</v>
@@ -10220,16 +10198,16 @@
         <v>1</v>
       </c>
       <c r="J105" s="9" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="S105" s="1"/>
     </row>
     <row r="106" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="27" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B106" s="27" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C106" s="1">
         <v>1</v>
@@ -10247,16 +10225,16 @@
         <v>1</v>
       </c>
       <c r="J106" s="9" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="S106" s="1"/>
     </row>
     <row r="107" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="27" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B107" s="27" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C107" s="1">
         <v>1</v>
@@ -10274,16 +10252,16 @@
         <v>1</v>
       </c>
       <c r="J107" s="9" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="S107" s="1"/>
     </row>
     <row r="108" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="27" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B108" s="27" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C108" s="1">
         <v>1</v>
@@ -10301,16 +10279,16 @@
         <v>1</v>
       </c>
       <c r="J108" s="9" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="S108" s="1"/>
     </row>
     <row r="109" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="27" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B109" s="27" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C109" s="1">
         <v>1</v>
@@ -10328,16 +10306,16 @@
         <v>1</v>
       </c>
       <c r="J109" s="9" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="S109" s="1"/>
     </row>
     <row r="110" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="27" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B110" s="27" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C110" s="1">
         <v>1</v>
@@ -10355,16 +10333,16 @@
         <v>1</v>
       </c>
       <c r="J110" s="9" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="S110" s="1"/>
     </row>
     <row r="111" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="27" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B111" s="27" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C111" s="1">
         <v>1</v>
@@ -10382,16 +10360,16 @@
         <v>1</v>
       </c>
       <c r="J111" s="9" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="S111" s="1"/>
     </row>
     <row r="112" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="27" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B112" s="27" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C112" s="1">
         <v>1</v>
@@ -10409,16 +10387,16 @@
         <v>1</v>
       </c>
       <c r="J112" s="9" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="S112" s="1"/>
     </row>
     <row r="113" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="27" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B113" s="27" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C113" s="1">
         <v>5</v>
@@ -10436,16 +10414,16 @@
         <v>1</v>
       </c>
       <c r="J113" s="9" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="S113" s="1"/>
     </row>
     <row r="114" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="27" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B114" s="27" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C114" s="1">
         <v>5</v>
@@ -10463,16 +10441,16 @@
         <v>1</v>
       </c>
       <c r="J114" s="9" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="S114" s="1"/>
     </row>
     <row r="115" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="27" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B115" s="27" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C115" s="1">
         <v>5</v>
@@ -10490,16 +10468,16 @@
         <v>1</v>
       </c>
       <c r="J115" s="9" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="S115" s="1"/>
     </row>
     <row r="116" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="27" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B116" s="27" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C116" s="1">
         <v>5</v>
@@ -10517,16 +10495,16 @@
         <v>1</v>
       </c>
       <c r="J116" s="9" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="S116" s="1"/>
     </row>
     <row r="117" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="27" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B117" s="27" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C117" s="1">
         <v>5</v>
@@ -10544,16 +10522,16 @@
         <v>1</v>
       </c>
       <c r="J117" s="9" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="S117" s="1"/>
     </row>
     <row r="118" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="27" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B118" s="27" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C118" s="1">
         <v>5</v>
@@ -10571,16 +10549,16 @@
         <v>1</v>
       </c>
       <c r="J118" s="9" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="S118" s="1"/>
     </row>
     <row r="119" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="27" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B119" s="27" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C119" s="1">
         <v>5</v>
@@ -10598,16 +10576,16 @@
         <v>1</v>
       </c>
       <c r="J119" s="9" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="S119" s="1"/>
     </row>
     <row r="120" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="27" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B120" s="27" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C120" s="1">
         <v>5</v>
@@ -10625,16 +10603,16 @@
         <v>1</v>
       </c>
       <c r="J120" s="9" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="S120" s="1"/>
     </row>
     <row r="121" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="27" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B121" s="27" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C121" s="1">
         <v>5</v>
@@ -10652,16 +10630,16 @@
         <v>1</v>
       </c>
       <c r="J121" s="9" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="S121" s="1"/>
     </row>
     <row r="122" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="27" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B122" s="27" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C122" s="1">
         <v>5</v>
@@ -10679,16 +10657,16 @@
         <v>1</v>
       </c>
       <c r="J122" s="9" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="S122" s="1"/>
     </row>
     <row r="123" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="27" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B123" s="27" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C123" s="1">
         <v>5</v>
@@ -10706,16 +10684,16 @@
         <v>1</v>
       </c>
       <c r="J123" s="9" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="S123" s="1"/>
     </row>
     <row r="124" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="27" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B124" s="27" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C124" s="1">
         <v>5</v>
@@ -10733,16 +10711,16 @@
         <v>1</v>
       </c>
       <c r="J124" s="9" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="S124" s="1"/>
     </row>
     <row r="125" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="27" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B125" s="27" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C125" s="1">
         <v>5</v>
@@ -10760,16 +10738,16 @@
         <v>1</v>
       </c>
       <c r="J125" s="9" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="S125" s="1"/>
     </row>
     <row r="126" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="27" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B126" s="27" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C126" s="1">
         <v>5</v>
@@ -10787,16 +10765,16 @@
         <v>1</v>
       </c>
       <c r="J126" s="9" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="S126" s="1"/>
     </row>
     <row r="127" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="27" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B127" s="27" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C127" s="1">
         <v>5</v>
@@ -10814,16 +10792,16 @@
         <v>1</v>
       </c>
       <c r="J127" s="9" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="S127" s="1"/>
     </row>
     <row r="128" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="27" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B128" s="27" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C128" s="1">
         <v>5</v>
@@ -10841,16 +10819,16 @@
         <v>1</v>
       </c>
       <c r="J128" s="9" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="S128" s="1"/>
     </row>
     <row r="129" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="28" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B129" s="28" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C129" s="11">
         <v>5</v>
@@ -10868,16 +10846,16 @@
         <v>1</v>
       </c>
       <c r="J129" s="9" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="S129" s="1"/>
     </row>
     <row r="130" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="27" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B130" s="27" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C130" s="1">
         <v>5</v>
@@ -10895,17 +10873,17 @@
         <v>1</v>
       </c>
       <c r="J130" s="9" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="M130" s="9"/>
       <c r="S130" s="1"/>
     </row>
     <row r="131" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="27" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B131" s="27" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C131" s="1">
         <v>5</v>
@@ -10923,16 +10901,16 @@
         <v>1</v>
       </c>
       <c r="J131" s="9" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="S131" s="1"/>
     </row>
     <row r="132" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="27" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B132" s="27" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C132" s="1">
         <v>5</v>
@@ -10950,16 +10928,16 @@
         <v>1</v>
       </c>
       <c r="J132" s="9" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="S132" s="1"/>
     </row>
     <row r="133" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="27" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B133" s="27" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C133" s="1">
         <v>5</v>
@@ -10977,16 +10955,16 @@
         <v>1</v>
       </c>
       <c r="J133" s="9" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="S133" s="1"/>
     </row>
     <row r="134" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="27" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B134" s="27" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C134" s="1">
         <v>5</v>
@@ -11004,15 +10982,15 @@
         <v>1</v>
       </c>
       <c r="J134" s="9" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="135" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="27" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B135" s="27" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C135" s="1">
         <v>5</v>
@@ -11030,15 +11008,15 @@
         <v>1</v>
       </c>
       <c r="J135" s="9" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="136" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="27" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B136" s="27" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C136" s="1">
         <v>5</v>
@@ -11056,15 +11034,15 @@
         <v>1</v>
       </c>
       <c r="J136" s="9" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="137" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="27" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B137" s="27" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C137" s="1">
         <v>5</v>
@@ -11082,15 +11060,15 @@
         <v>1</v>
       </c>
       <c r="J137" s="9" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="138" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="27" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B138" s="27" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C138" s="1">
         <v>5</v>
@@ -11108,15 +11086,15 @@
         <v>1</v>
       </c>
       <c r="J138" s="9" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="139" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="27" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B139" s="27" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C139" s="1">
         <v>5</v>
@@ -11134,15 +11112,15 @@
         <v>1</v>
       </c>
       <c r="J139" s="9" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="140" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="27" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B140" s="27" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C140" s="1">
         <v>5</v>
@@ -11160,15 +11138,15 @@
         <v>1</v>
       </c>
       <c r="J140" s="9" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="141" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="27" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B141" s="27" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C141" s="1">
         <v>5</v>
@@ -11186,15 +11164,15 @@
         <v>1</v>
       </c>
       <c r="J141" s="9" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="142" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="27" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B142" s="27" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C142" s="1">
         <v>5</v>
@@ -11212,15 +11190,15 @@
         <v>1</v>
       </c>
       <c r="J142" s="9" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="143" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="27" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B143" s="27" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C143" s="1">
         <v>5</v>
@@ -11238,15 +11216,15 @@
         <v>1</v>
       </c>
       <c r="J143" s="9" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="144" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="27" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B144" s="27" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C144" s="1">
         <v>5</v>
@@ -11264,16 +11242,16 @@
         <v>1</v>
       </c>
       <c r="J144" s="9" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="L144" s="9"/>
     </row>
     <row r="145" spans="1:17" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="27" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B145" s="27" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C145" s="1">
         <v>5</v>
@@ -11293,7 +11271,7 @@
       <c r="H145" s="11"/>
       <c r="I145" s="11"/>
       <c r="J145" s="9" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="K145" s="6"/>
       <c r="L145" s="1"/>
@@ -11305,10 +11283,10 @@
     </row>
     <row r="146" spans="1:17" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="27" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B146" s="27" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C146" s="1">
         <v>5</v>
@@ -11328,7 +11306,7 @@
       <c r="H146" s="11"/>
       <c r="I146" s="11"/>
       <c r="J146" s="9" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="K146" s="6"/>
       <c r="L146" s="1"/>
@@ -11340,10 +11318,10 @@
     </row>
     <row r="147" spans="1:17" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="27" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B147" s="27" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C147" s="1">
         <v>5</v>
@@ -11363,7 +11341,7 @@
       <c r="H147" s="11"/>
       <c r="I147" s="11"/>
       <c r="J147" s="9" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="K147" s="6"/>
       <c r="L147" s="1"/>
@@ -11375,10 +11353,10 @@
     </row>
     <row r="148" spans="1:17" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="27" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B148" s="27" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C148" s="1">
         <v>5</v>
@@ -11398,7 +11376,7 @@
       <c r="H148" s="11"/>
       <c r="I148" s="11"/>
       <c r="J148" s="9" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="K148" s="6"/>
       <c r="L148" s="1"/>
@@ -11410,10 +11388,10 @@
     </row>
     <row r="149" spans="1:17" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="27" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B149" s="27" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C149" s="1">
         <v>5</v>
@@ -11433,7 +11411,7 @@
       <c r="H149" s="11"/>
       <c r="I149" s="11"/>
       <c r="J149" s="9" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="K149" s="6"/>
       <c r="L149" s="1"/>
@@ -11445,10 +11423,10 @@
     </row>
     <row r="150" spans="1:17" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="27" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B150" s="27" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C150" s="1">
         <v>5</v>
@@ -11468,7 +11446,7 @@
       <c r="H150" s="11"/>
       <c r="I150" s="11"/>
       <c r="J150" s="9" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="K150" s="6"/>
       <c r="L150" s="1"/>
@@ -11480,10 +11458,10 @@
     </row>
     <row r="151" spans="1:17" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="27" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B151" s="27" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C151" s="1">
         <v>1</v>
@@ -11503,7 +11481,7 @@
       <c r="H151" s="11"/>
       <c r="I151" s="11"/>
       <c r="J151" s="9" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="K151" s="6"/>
       <c r="L151" s="1"/>
@@ -11515,10 +11493,10 @@
     </row>
     <row r="152" spans="1:17" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="27" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B152" s="27" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C152" s="1">
         <v>1</v>
@@ -11538,7 +11516,7 @@
       <c r="H152" s="11"/>
       <c r="I152" s="11"/>
       <c r="J152" s="9" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="K152" s="6"/>
       <c r="L152" s="1"/>
@@ -11700,7 +11678,7 @@
     </row>
     <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -11714,7 +11692,7 @@
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
@@ -11728,7 +11706,7 @@
     </row>
     <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -11743,7 +11721,7 @@
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
@@ -11757,7 +11735,7 @@
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -11773,7 +11751,7 @@
     </row>
     <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -11789,7 +11767,7 @@
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -11805,7 +11783,7 @@
     </row>
     <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -11821,7 +11799,7 @@
     </row>
     <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -11837,7 +11815,7 @@
     </row>
     <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -11852,7 +11830,7 @@
     </row>
     <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -11867,7 +11845,7 @@
     </row>
     <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -11882,7 +11860,7 @@
     </row>
     <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -11897,7 +11875,7 @@
     </row>
     <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -11912,7 +11890,7 @@
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -11927,7 +11905,7 @@
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
@@ -11942,7 +11920,7 @@
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B18" s="1">
         <v>0</v>
@@ -11957,7 +11935,7 @@
     </row>
     <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
@@ -11972,7 +11950,7 @@
     </row>
     <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B20" s="1">
         <v>0</v>
@@ -11987,7 +11965,7 @@
     </row>
     <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
@@ -12002,7 +11980,7 @@
     </row>
     <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B22" s="1">
         <v>0</v>
@@ -12017,7 +11995,7 @@
     </row>
     <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
@@ -12032,7 +12010,7 @@
     </row>
     <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -12047,7 +12025,7 @@
     </row>
     <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
@@ -12062,7 +12040,7 @@
     </row>
     <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B26" s="1">
         <v>0</v>
@@ -12077,7 +12055,7 @@
     </row>
     <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
@@ -12180,10 +12158,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>42</v>
@@ -12200,10 +12178,10 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>42</v>
@@ -12220,10 +12198,10 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>42</v>
@@ -12241,10 +12219,10 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>42</v>
@@ -12261,10 +12239,10 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>42</v>
@@ -12282,13 +12260,13 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I7" s="1" t="b">
         <v>0</v>
@@ -12303,10 +12281,10 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>42</v>
@@ -12323,10 +12301,10 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>42</v>
@@ -12343,10 +12321,10 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>42</v>
@@ -12363,10 +12341,10 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>42</v>
@@ -12383,10 +12361,10 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>42</v>
@@ -12403,13 +12381,13 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I13" s="1" t="b">
         <v>0</v>
@@ -12423,13 +12401,13 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I14" s="1" t="b">
         <v>0</v>
@@ -12443,10 +12421,10 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>42</v>
@@ -12464,13 +12442,13 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I16" s="1" t="b">
         <v>0</v>
@@ -12485,13 +12463,13 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I17" s="1" t="b">
         <v>0</v>
@@ -12506,13 +12484,13 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I18" s="1" t="b">
         <v>0</v>
@@ -12526,13 +12504,13 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I19" s="1" t="b">
         <v>0</v>
@@ -12546,13 +12524,13 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I20" s="1" t="b">
         <v>0</v>
@@ -12566,13 +12544,13 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I21" s="1" t="b">
         <v>0</v>
@@ -12586,13 +12564,13 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I22" s="1" t="b">
         <v>0</v>
@@ -12607,13 +12585,13 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I23" s="1" t="b">
         <v>0</v>
@@ -12627,10 +12605,10 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>42</v>
@@ -12647,10 +12625,10 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>42</v>
@@ -12667,10 +12645,10 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>42</v>
@@ -12687,13 +12665,13 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I27" s="1" t="b">
         <v>0</v>
@@ -12707,13 +12685,13 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I28" s="1" t="b">
         <v>0</v>
@@ -12727,13 +12705,13 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I29" s="1" t="b">
         <v>0</v>
@@ -12747,13 +12725,13 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I30" s="1" t="b">
         <v>0</v>
@@ -12767,13 +12745,13 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I31" s="1" t="b">
         <v>0</v>
@@ -12788,13 +12766,13 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I32" s="1" t="b">
         <v>0</v>
@@ -12809,10 +12787,10 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>42</v>
@@ -12829,13 +12807,13 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I34" s="1" t="b">
         <v>0</v>
@@ -12850,13 +12828,13 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I35" s="1" t="b">
         <v>0</v>
@@ -12870,13 +12848,13 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I36" s="1" t="b">
         <v>0</v>
@@ -12890,13 +12868,13 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I37" s="1" t="b">
         <v>0</v>
@@ -12910,10 +12888,10 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>42</v>
@@ -12930,13 +12908,13 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I39" s="1" t="b">
         <v>0</v>
@@ -12950,10 +12928,10 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>42</v>
@@ -12971,10 +12949,10 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>42</v>
@@ -12991,13 +12969,13 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I42" s="1" t="b">
         <v>0</v>
@@ -13012,10 +12990,10 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>42</v>
@@ -13032,13 +13010,13 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I44" s="1" t="b">
         <v>0</v>
@@ -13052,13 +13030,13 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I45" s="1" t="b">
         <v>0</v>
@@ -13072,13 +13050,13 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I46" s="1" t="b">
         <v>0</v>
@@ -13092,13 +13070,13 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I47" s="1" t="b">
         <v>0</v>
@@ -13112,10 +13090,10 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>42</v>
@@ -13132,13 +13110,13 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I49" s="1" t="b">
         <v>0</v>
@@ -13152,13 +13130,13 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I50" s="1" t="b">
         <v>0</v>
@@ -13173,10 +13151,10 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>42</v>
@@ -13193,10 +13171,10 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>42</v>
@@ -13213,10 +13191,10 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>42</v>
@@ -13234,10 +13212,10 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>42</v>
@@ -13254,10 +13232,10 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>42</v>
@@ -13275,10 +13253,10 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>42</v>
@@ -13289,10 +13267,10 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>42</v>
@@ -13303,10 +13281,10 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>42</v>
@@ -13317,13 +13295,13 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I59" s="1" t="b">
         <v>0</v>
@@ -13331,13 +13309,13 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I60" s="1" t="b">
         <v>0</v>
@@ -13345,10 +13323,10 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>42</v>
@@ -13359,13 +13337,13 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I62" s="1" t="b">
         <v>0</v>
@@ -13373,13 +13351,13 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I63" s="1" t="b">
         <v>0</v>
@@ -13387,13 +13365,13 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I64" s="1" t="b">
         <v>0</v>
@@ -13401,13 +13379,13 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I65" s="1" t="b">
         <v>0</v>
@@ -13415,13 +13393,13 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I66" s="1" t="b">
         <v>0</v>
@@ -13429,10 +13407,10 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>42</v>
@@ -13443,13 +13421,13 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I68" s="1" t="b">
         <v>0</v>
@@ -13457,13 +13435,13 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I69" s="1" t="b">
         <v>0</v>
@@ -13471,13 +13449,13 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I70" s="1" t="b">
         <v>0</v>
@@ -13485,13 +13463,13 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I71" s="1" t="b">
         <v>0</v>
@@ -13499,13 +13477,13 @@
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I72" s="1" t="b">
         <v>0</v>
@@ -13513,10 +13491,10 @@
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>42</v>
@@ -13527,10 +13505,10 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>42</v>
@@ -13541,10 +13519,10 @@
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>42</v>
@@ -13561,13 +13539,13 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I76" s="1" t="b">
         <v>0</v>
@@ -13582,13 +13560,13 @@
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I77" s="1" t="b">
         <v>0</v>
@@ -13602,13 +13580,13 @@
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I78" s="1" t="b">
         <v>0</v>
@@ -13622,13 +13600,13 @@
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I79" s="1" t="b">
         <v>0</v>
@@ -13642,10 +13620,10 @@
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>42</v>
@@ -13662,13 +13640,13 @@
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I81" s="1" t="b">
         <v>0</v>
@@ -13683,10 +13661,10 @@
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>42</v>
@@ -13703,10 +13681,10 @@
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>42</v>
@@ -13724,10 +13702,10 @@
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>42</v>
@@ -13744,10 +13722,10 @@
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>42</v>
@@ -13764,13 +13742,13 @@
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I86" s="1" t="b">
         <v>0</v>
@@ -13784,13 +13762,13 @@
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I87" s="1" t="b">
         <v>0</v>
@@ -13804,10 +13782,10 @@
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>42</v>
@@ -13824,10 +13802,10 @@
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>42</v>
@@ -13844,13 +13822,13 @@
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I90" s="1" t="b">
         <v>0</v>
@@ -13864,10 +13842,10 @@
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>42</v>
@@ -13884,10 +13862,10 @@
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>42</v>
@@ -13905,13 +13883,13 @@
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I93" s="1" t="b">
         <v>0</v>
@@ -13925,10 +13903,10 @@
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>42</v>
@@ -13945,13 +13923,13 @@
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I95" s="1" t="b">
         <v>0</v>
@@ -13965,13 +13943,13 @@
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I96" s="1" t="b">
         <v>0</v>
@@ -13986,13 +13964,13 @@
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I97" s="1" t="b">
         <v>0</v>
@@ -14007,10 +13985,10 @@
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>42</v>
@@ -14027,13 +14005,13 @@
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I99" s="1" t="b">
         <v>0</v>
@@ -14048,13 +14026,13 @@
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I100" s="1" t="b">
         <v>0</v>
@@ -14068,10 +14046,10 @@
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>42</v>
@@ -14088,10 +14066,10 @@
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>42</v>
@@ -14109,10 +14087,10 @@
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>42</v>
@@ -14130,10 +14108,10 @@
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>42</v>
@@ -14150,10 +14128,10 @@
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>42</v>
@@ -14171,13 +14149,13 @@
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I106" s="1" t="b">
         <v>0</v>
@@ -14191,13 +14169,13 @@
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I107" s="1" t="b">
         <v>0</v>
@@ -14212,13 +14190,13 @@
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I108" s="1" t="b">
         <v>0</v>
@@ -14232,13 +14210,13 @@
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I109" s="1" t="b">
         <v>0</v>
@@ -14252,13 +14230,13 @@
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I110" s="1" t="b">
         <v>0</v>
@@ -14272,13 +14250,13 @@
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I111" s="1" t="b">
         <v>0</v>
@@ -14292,13 +14270,13 @@
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I112" s="1" t="b">
         <v>0</v>
@@ -14313,13 +14291,13 @@
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I113" s="1" t="b">
         <v>0</v>
@@ -14333,13 +14311,13 @@
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I114" s="1" t="b">
         <v>0</v>
@@ -14353,10 +14331,10 @@
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>42</v>
@@ -14373,10 +14351,10 @@
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>42</v>
@@ -14393,13 +14371,13 @@
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I117" s="1" t="b">
         <v>0</v>
@@ -14413,13 +14391,13 @@
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I118" s="1" t="b">
         <v>0</v>
@@ -14434,13 +14412,13 @@
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B119" s="9" t="s">
         <v>65</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I119" s="1" t="b">
         <v>0</v>
@@ -14454,13 +14432,13 @@
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I120" s="1" t="b">
         <v>0</v>
@@ -14474,10 +14452,10 @@
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>42</v>
@@ -14494,13 +14472,13 @@
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I122" s="1" t="b">
         <v>0</v>
@@ -14514,13 +14492,13 @@
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I123" s="1" t="b">
         <v>0</v>
@@ -14534,13 +14512,13 @@
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I124" s="1" t="b">
         <v>0</v>
@@ -14554,13 +14532,13 @@
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I125" s="1" t="b">
         <v>0</v>
@@ -14574,13 +14552,13 @@
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I126" s="1" t="b">
         <v>0</v>
@@ -14595,13 +14573,13 @@
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I127" s="1" t="b">
         <v>0</v>
@@ -14609,13 +14587,13 @@
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I128" s="1" t="b">
         <v>0</v>
@@ -14623,13 +14601,13 @@
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I129" s="1" t="b">
         <v>0</v>
@@ -14637,10 +14615,10 @@
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H130" s="1" t="s">
         <v>42</v>
@@ -14651,10 +14629,10 @@
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H131" s="1" t="s">
         <v>42</v>
@@ -14665,10 +14643,10 @@
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H132" s="1" t="s">
         <v>42</v>
@@ -14679,13 +14657,13 @@
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I133" s="1" t="b">
         <v>0</v>
@@ -14693,13 +14671,13 @@
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I134" s="1" t="b">
         <v>0</v>
@@ -14707,13 +14685,13 @@
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I135" s="1" t="b">
         <v>0</v>
@@ -14721,13 +14699,13 @@
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I136" s="1" t="b">
         <v>0</v>
@@ -14735,13 +14713,13 @@
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I137" s="1" t="b">
         <v>0</v>
@@ -14749,13 +14727,13 @@
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I138" s="1" t="b">
         <v>0</v>
@@ -14763,13 +14741,13 @@
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I139" s="1" t="b">
         <v>0</v>
@@ -14777,13 +14755,13 @@
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I140" s="1" t="b">
         <v>0</v>
@@ -14791,13 +14769,13 @@
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I141" s="1" t="b">
         <v>0</v>
@@ -14811,10 +14789,10 @@
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="H142" s="1" t="s">
         <v>42</v>
@@ -14832,10 +14810,10 @@
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>42</v>
@@ -14853,13 +14831,13 @@
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I144" s="1" t="b">
         <v>0</v>
@@ -14874,13 +14852,13 @@
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I145" s="1" t="b">
         <v>0</v>
@@ -14895,13 +14873,13 @@
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I146" s="1" t="b">
         <v>0</v>
@@ -14916,13 +14894,13 @@
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I147" s="1" t="b">
         <v>0</v>
@@ -14937,13 +14915,13 @@
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I148" s="1" t="b">
         <v>0</v>
@@ -14958,13 +14936,13 @@
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I149" s="1" t="b">
         <v>0</v>
@@ -14979,13 +14957,13 @@
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I150" s="1" t="b">
         <v>0</v>
@@ -15000,10 +14978,10 @@
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H151" s="1" t="s">
         <v>42</v>
@@ -15020,10 +14998,10 @@
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>42</v>
@@ -15040,13 +15018,13 @@
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I153" s="1" t="b">
         <v>0</v>
@@ -15061,13 +15039,13 @@
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I154" s="1" t="b">
         <v>0</v>
@@ -15082,10 +15060,10 @@
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="H155" s="1" t="s">
         <v>42</v>
@@ -15103,10 +15081,10 @@
     </row>
     <row r="156" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>42</v>
@@ -15124,10 +15102,10 @@
     </row>
     <row r="157" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H157" s="1" t="s">
         <v>42</v>
@@ -15145,10 +15123,10 @@
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="H158" s="1" t="s">
         <v>42</v>
@@ -15166,13 +15144,13 @@
     </row>
     <row r="159" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I159" s="1" t="b">
         <v>0</v>
@@ -15187,13 +15165,13 @@
     </row>
     <row r="160" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I160" s="1" t="b">
         <v>0</v>
@@ -15208,13 +15186,13 @@
     </row>
     <row r="161" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I161" s="1" t="b">
         <v>0</v>
@@ -15229,10 +15207,10 @@
     </row>
     <row r="162" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="H162" s="1" t="s">
         <v>42</v>
@@ -15250,13 +15228,13 @@
     </row>
     <row r="163" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I163" s="1" t="b">
         <v>0</v>
@@ -15271,13 +15249,13 @@
     </row>
     <row r="164" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I164" s="1" t="b">
         <v>0</v>
@@ -15292,13 +15270,13 @@
     </row>
     <row r="165" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I165" s="1" t="b">
         <v>0</v>
@@ -15313,13 +15291,13 @@
     </row>
     <row r="166" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I166" s="1" t="b">
         <v>0</v>
@@ -15334,13 +15312,13 @@
     </row>
     <row r="167" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I167" s="1" t="b">
         <v>0</v>
@@ -15355,13 +15333,13 @@
     </row>
     <row r="168" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I168" s="1" t="b">
         <v>0</v>
@@ -15376,10 +15354,10 @@
     </row>
     <row r="169" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="H169" s="1" t="s">
         <v>42</v>
@@ -15397,13 +15375,13 @@
     </row>
     <row r="170" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I170" s="1" t="b">
         <v>0</v>
@@ -15418,13 +15396,13 @@
     </row>
     <row r="171" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I171" s="1" t="b">
         <v>0</v>
@@ -15439,13 +15417,13 @@
     </row>
     <row r="172" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I172" s="1" t="b">
         <v>0</v>
@@ -15460,13 +15438,13 @@
     </row>
     <row r="173" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I173" s="1" t="b">
         <v>0</v>
@@ -15481,13 +15459,13 @@
     </row>
     <row r="174" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I174" s="1" t="b">
         <v>0</v>
@@ -15502,10 +15480,10 @@
     </row>
     <row r="175" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B175" s="9" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="H175" s="1" t="s">
         <v>42</v>
@@ -15523,10 +15501,10 @@
     </row>
     <row r="176" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="H176" s="1" t="s">
         <v>42</v>
@@ -15544,10 +15522,10 @@
     </row>
     <row r="177" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H177" s="1" t="s">
         <v>42</v>
@@ -15565,10 +15543,10 @@
     </row>
     <row r="178" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="H178" s="1" t="s">
         <v>42</v>
@@ -15586,13 +15564,13 @@
     </row>
     <row r="179" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I179" s="1" t="b">
         <v>0</v>
@@ -15607,13 +15585,13 @@
     </row>
     <row r="180" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I180" s="1" t="b">
         <v>0</v>
@@ -15628,13 +15606,13 @@
     </row>
     <row r="181" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I181" s="1" t="b">
         <v>0</v>
@@ -15649,10 +15627,10 @@
     </row>
     <row r="182" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="H182" s="1" t="s">
         <v>42</v>
@@ -15670,10 +15648,10 @@
     </row>
     <row r="183" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H183" s="1" t="s">
         <v>42</v>
@@ -15691,10 +15669,10 @@
     </row>
     <row r="184" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="H184" s="1" t="s">
         <v>42</v>
@@ -15712,10 +15690,10 @@
     </row>
     <row r="185" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="H185" s="1" t="s">
         <v>42</v>
@@ -15733,13 +15711,13 @@
     </row>
     <row r="186" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I186" s="1" t="b">
         <v>0</v>
@@ -15747,10 +15725,10 @@
     </row>
     <row r="187" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H187" s="1" t="s">
         <v>42</v>
@@ -15761,13 +15739,13 @@
     </row>
     <row r="188" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I188" s="1" t="b">
         <v>0</v>
@@ -15775,13 +15753,13 @@
     </row>
     <row r="189" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B189" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I189" s="1" t="b">
         <v>0</v>
@@ -15789,13 +15767,13 @@
     </row>
     <row r="190" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B190" s="9" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I190" s="1" t="b">
         <v>0</v>
@@ -15803,13 +15781,13 @@
     </row>
     <row r="191" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I191" s="1" t="b">
         <v>0</v>
@@ -15817,13 +15795,13 @@
     </row>
     <row r="192" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I192" s="1" t="b">
         <v>0</v>
@@ -15831,13 +15809,13 @@
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B193" s="9" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I193" s="1" t="b">
         <v>0</v>
@@ -15845,13 +15823,13 @@
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B194" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I194" s="1" t="b">
         <v>0</v>
@@ -15859,13 +15837,13 @@
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B195" s="9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I195" s="1" t="b">
         <v>0</v>
@@ -15935,7 +15913,7 @@
     </row>
     <row r="2" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B2" s="1">
         <v>5</v>
@@ -15958,7 +15936,7 @@
     </row>
     <row r="3" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B3" s="1">
         <v>5</v>
@@ -15981,7 +15959,7 @@
     </row>
     <row r="4" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B4" s="1">
         <v>5</v>
@@ -16004,7 +15982,7 @@
     </row>
     <row r="5" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B5" s="1">
         <v>5</v>
@@ -16027,7 +16005,7 @@
     </row>
     <row r="6" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -16050,7 +16028,7 @@
     </row>
     <row r="7" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B7" s="1">
         <v>5</v>
@@ -16073,7 +16051,7 @@
     </row>
     <row r="8" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B8" s="1">
         <v>5</v>
@@ -16096,7 +16074,7 @@
     </row>
     <row r="9" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B9" s="1">
         <v>5</v>
@@ -16165,7 +16143,7 @@
     </row>
     <row r="2" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>88</v>
@@ -16173,7 +16151,7 @@
     </row>
     <row r="3" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>88</v>
@@ -16181,7 +16159,7 @@
     </row>
     <row r="4" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>88</v>
@@ -16189,7 +16167,7 @@
     </row>
     <row r="5" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>88</v>
@@ -16197,7 +16175,7 @@
     </row>
     <row r="6" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>88</v>
@@ -16205,7 +16183,7 @@
     </row>
     <row r="7" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>88</v>
@@ -16213,7 +16191,7 @@
     </row>
     <row r="8" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>88</v>
@@ -16221,7 +16199,7 @@
     </row>
     <row r="9" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>88</v>
@@ -16229,7 +16207,7 @@
     </row>
     <row r="10" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>88</v>
@@ -16237,7 +16215,7 @@
     </row>
     <row r="11" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>88</v>
@@ -16291,54 +16269,54 @@
     <row r="1" spans="1:9" s="32" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31"/>
       <c r="B1" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>396</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="33" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B5" s="1">
         <v>1000</v>
@@ -16361,154 +16339,154 @@
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="33" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="33" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="33" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="33" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="33" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="33" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="33" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="33" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="33" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="33" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="33" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="33" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="33" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="33" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="33" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="33" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="33" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -16540,34 +16518,34 @@
     <row r="1" spans="1:18" s="3" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="B1" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>406</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>408</v>
       </c>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -16579,7 +16557,7 @@
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G2" s="1">
         <v>1000</v>
@@ -16599,7 +16577,7 @@
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G3" s="1">
         <v>1000</v>
@@ -16619,7 +16597,7 @@
     </row>
     <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G4" s="1">
         <v>1000</v>
@@ -16639,7 +16617,7 @@
     </row>
     <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B5" s="1">
         <v>1000</v>
@@ -16671,7 +16649,7 @@
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B6" s="1">
         <v>1000</v>
@@ -16691,7 +16669,7 @@
     </row>
     <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B7" s="1">
         <v>1000</v>
@@ -16711,7 +16689,7 @@
     </row>
     <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B8" s="1">
         <v>1000</v>
@@ -16731,7 +16709,7 @@
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B9" s="1">
         <v>1000</v>
@@ -16751,7 +16729,7 @@
     </row>
     <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B10" s="1">
         <v>1000</v>
@@ -16771,7 +16749,7 @@
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B11" s="1">
         <v>1000</v>
@@ -16791,7 +16769,7 @@
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B12" s="1">
         <v>1000</v>
@@ -16811,7 +16789,7 @@
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B13" s="1">
         <v>1000</v>
@@ -16831,7 +16809,7 @@
     </row>
     <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B14" s="1">
         <v>1000</v>
@@ -16851,7 +16829,7 @@
     </row>
     <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B15" s="1">
         <v>1000</v>
@@ -16871,7 +16849,7 @@
     </row>
     <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B16" s="1">
         <v>1000</v>
@@ -16891,7 +16869,7 @@
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B17" s="1">
         <v>1000</v>
@@ -16911,7 +16889,7 @@
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B18" s="1">
         <v>1000</v>
@@ -16931,7 +16909,7 @@
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B19" s="1">
         <v>1000</v>
@@ -16951,7 +16929,7 @@
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B20" s="1">
         <v>1000</v>
@@ -16971,7 +16949,7 @@
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B21" s="1">
         <v>1000</v>
@@ -16991,7 +16969,7 @@
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B22" s="1">
         <v>1000</v>
@@ -17011,7 +16989,7 @@
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B23" s="1">
         <v>1000</v>
@@ -17031,7 +17009,7 @@
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B24" s="1">
         <v>1000</v>
@@ -17051,7 +17029,7 @@
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B25" s="1">
         <v>1000</v>
@@ -17071,7 +17049,7 @@
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B26" s="1">
         <v>1000</v>
@@ -17091,7 +17069,7 @@
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B27" s="1">
         <v>1000</v>
